--- a/Testopenpyxl.xlsx
+++ b/Testopenpyxl.xlsx
@@ -1,13 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{134D58E7-D3AC-451C-9F4D-6A267AA29264}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -16,27 +19,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
-    <t>25/01/18</t>
-  </si>
-  <si>
-    <t>27/02/18</t>
-  </si>
-  <si>
-    <t>23/03/18</t>
-  </si>
-  <si>
-    <t>21/04/19</t>
-  </si>
-  <si>
-    <t>22/05/19</t>
-  </si>
-  <si>
-    <t>25/10/19</t>
-  </si>
-  <si>
-    <t>25/06/20</t>
-  </si>
-  <si>
     <t>Apple</t>
   </si>
   <si>
@@ -56,12 +38,33 @@
   </si>
   <si>
     <t>Dates</t>
+  </si>
+  <si>
+    <t>23/03/18         11:55</t>
+  </si>
+  <si>
+    <t>27/02/18        07:07</t>
+  </si>
+  <si>
+    <t>25/01/18         08:33</t>
+  </si>
+  <si>
+    <t>21/04/19         01:12</t>
+  </si>
+  <si>
+    <t>22/05/19           13:56</t>
+  </si>
+  <si>
+    <t>25/10/19        05:49</t>
+  </si>
+  <si>
+    <t>25/06/20         20:07</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -91,8 +94,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -186,6 +191,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -221,6 +243,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -396,11 +435,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B1" sqref="B1:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -410,11 +449,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>7</v>
       </c>
       <c r="C1">
         <v>25</v>
@@ -424,11 +463,11 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
       </c>
       <c r="C2">
         <v>34</v>
@@ -438,11 +477,11 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
       </c>
       <c r="C3">
         <v>43</v>
@@ -452,11 +491,11 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
       </c>
       <c r="C4">
         <v>52</v>
@@ -466,39 +505,72 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
       </c>
       <c r="C5">
         <v>61</v>
       </c>
+      <c r="D5">
+        <v>151</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
       </c>
       <c r="C6">
         <v>70</v>
       </c>
+      <c r="D6">
+        <v>171</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
       </c>
       <c r="C7">
         <v>77</v>
+      </c>
+      <c r="D7">
+        <v>177</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90263964-9C12-423B-B0D4-EA40AC7B9222}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{046DCE30-1B34-4031-A68F-F15D8C212599}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Testopenpyxl.xlsx
+++ b/Testopenpyxl.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{134D58E7-D3AC-451C-9F4D-6A267AA29264}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98EBB0AC-CF03-4BB4-B22A-18F3DC2FA410}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,25 +40,25 @@
     <t>Dates</t>
   </si>
   <si>
-    <t>23/03/18         11:55</t>
-  </si>
-  <si>
-    <t>27/02/18        07:07</t>
-  </si>
-  <si>
-    <t>25/01/18         08:33</t>
-  </si>
-  <si>
-    <t>21/04/19         01:12</t>
-  </si>
-  <si>
-    <t>22/05/19           13:56</t>
-  </si>
-  <si>
-    <t>25/10/19        05:49</t>
-  </si>
-  <si>
-    <t>25/06/20         20:07</t>
+    <t>25/01/2018         08:33</t>
+  </si>
+  <si>
+    <t>27/02/2018        07:07</t>
+  </si>
+  <si>
+    <t>23/03/2018         11:55</t>
+  </si>
+  <si>
+    <t>21/04/2019         01:12</t>
+  </si>
+  <si>
+    <t>22/05/2019           13:56</t>
+  </si>
+  <si>
+    <t>25/10/2019        05:49</t>
+  </si>
+  <si>
+    <t>25/06/2020         20:07</t>
   </si>
 </sst>
 </file>
@@ -439,18 +439,18 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B7"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="23" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -478,7 +478,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
@@ -548,6 +548,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Testopenpyxl.xlsx
+++ b/Testopenpyxl.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98EBB0AC-CF03-4BB4-B22A-18F3DC2FA410}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AA52D42-AEC3-445C-B3CC-177557E1121E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Apple</t>
   </si>
@@ -37,18 +37,6 @@
     <t>Oranges</t>
   </si>
   <si>
-    <t>Dates</t>
-  </si>
-  <si>
-    <t>25/01/2018         08:33</t>
-  </si>
-  <si>
-    <t>27/02/2018        07:07</t>
-  </si>
-  <si>
-    <t>23/03/2018         11:55</t>
-  </si>
-  <si>
     <t>21/04/2019         01:12</t>
   </si>
   <si>
@@ -58,13 +46,79 @@
     <t>25/10/2019        05:49</t>
   </si>
   <si>
-    <t>25/06/2020         20:07</t>
+    <t>Coconut</t>
+  </si>
+  <si>
+    <t>sheet['A7'].value</t>
+  </si>
+  <si>
+    <t>sheeta7=sheet['A7'].value</t>
+  </si>
+  <si>
+    <t>print(sheeta7)</t>
+  </si>
+  <si>
+    <t>print(sheetB1)</t>
+  </si>
+  <si>
+    <t>print(sheetB4)</t>
+  </si>
+  <si>
+    <t>print(sheetB7)</t>
+  </si>
+  <si>
+    <t>print(sheetC1)</t>
+  </si>
+  <si>
+    <t>print(sheetC4)</t>
+  </si>
+  <si>
+    <t>print(sheetC7)</t>
+  </si>
+  <si>
+    <t>sheet['C1']value</t>
+  </si>
+  <si>
+    <t>sheetC1=sheet['C1']value</t>
+  </si>
+  <si>
+    <t>sheet['C4']value</t>
+  </si>
+  <si>
+    <t>sheetC4=sheet['C4']value</t>
+  </si>
+  <si>
+    <t>sheet['C7']value</t>
+  </si>
+  <si>
+    <t>sheetC7=sheet['C7']value</t>
+  </si>
+  <si>
+    <t>sheet['B1']value</t>
+  </si>
+  <si>
+    <t>sheetB1=sheet['B1']value</t>
+  </si>
+  <si>
+    <t>sheet['B4']value</t>
+  </si>
+  <si>
+    <t>sheetB4=sheet['B4']value</t>
+  </si>
+  <si>
+    <t>sheet['B7']value</t>
+  </si>
+  <si>
+    <t>sheetB7=sheet['B7']value</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="m/d/yy\ h:mm;@"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -96,8 +150,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -444,15 +498,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="2">
+        <v>43125.356249999997</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1">
@@ -463,10 +517,10 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="2">
+        <v>43158.296527777777</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2">
@@ -477,10 +531,10 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="2">
+        <v>43182.496527777781</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C3">
@@ -491,10 +545,10 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C4">
@@ -505,10 +559,10 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C5">
@@ -519,10 +573,10 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C6">
@@ -533,11 +587,11 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>6</v>
+      <c r="A7" s="2">
+        <v>44007.838194444441</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="C7">
         <v>77</v>
@@ -554,12 +608,108 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90263964-9C12-423B-B0D4-EA40AC7B9222}">
-  <dimension ref="A1"/>
+  <dimension ref="D7:J23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="7" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="J15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="J17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="J19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="J21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>18</v>
+      </c>
+      <c r="J22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="J23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
